--- a/Jogos_do_Dia/2023-02-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -772,28 +772,28 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>7.75</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="3" spans="1:34">
@@ -813,13 +813,13 @@
         <v>56</v>
       </c>
       <c r="F3">
-        <v>3.1</v>
+        <v>3.22</v>
       </c>
       <c r="G3">
-        <v>3.2</v>
+        <v>3.33</v>
       </c>
       <c r="H3">
-        <v>2.15</v>
+        <v>2.22</v>
       </c>
       <c r="I3">
         <v>1.04</v>
@@ -834,10 +834,10 @@
         <v>4</v>
       </c>
       <c r="M3">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="N3">
-        <v>1.84</v>
+        <v>1.93</v>
       </c>
       <c r="O3">
         <v>1.33</v>
@@ -917,13 +917,13 @@
         <v>57</v>
       </c>
       <c r="F4">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="G4">
         <v>3.6</v>
       </c>
       <c r="H4">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="I4">
         <v>1.05</v>
@@ -938,10 +938,10 @@
         <v>3.8</v>
       </c>
       <c r="M4">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="N4">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="O4">
         <v>1.36</v>
@@ -1021,13 +1021,13 @@
         <v>58</v>
       </c>
       <c r="F5">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="G5">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I5">
         <v>1.07</v>
@@ -1042,10 +1042,10 @@
         <v>2.95</v>
       </c>
       <c r="M5">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="N5">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="O5">
         <v>1.44</v>
@@ -1125,10 +1125,10 @@
         <v>59</v>
       </c>
       <c r="F6">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="G6">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H6">
         <v>4</v>
@@ -1146,10 +1146,10 @@
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="N6">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="O6">
         <v>1.4</v>
@@ -1197,7 +1197,7 @@
         <v>2.54</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE6">
         <v>1.48</v>
@@ -1229,13 +1229,13 @@
         <v>60</v>
       </c>
       <c r="F7">
-        <v>2.55</v>
+        <v>2.8</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="I7">
         <v>1.09</v>
@@ -1250,7 +1250,7 @@
         <v>2.8</v>
       </c>
       <c r="M7">
-        <v>2.18</v>
+        <v>2.43</v>
       </c>
       <c r="N7">
         <v>1.56</v>
@@ -1301,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE7">
         <v>1.55</v>
@@ -1313,7 +1313,7 @@
         <v>2.3</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="8" spans="1:34">
@@ -1333,13 +1333,13 @@
         <v>61</v>
       </c>
       <c r="F8">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G8">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H8">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="I8">
         <v>1.01</v>
@@ -1354,10 +1354,10 @@
         <v>3.7</v>
       </c>
       <c r="M8">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="N8">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="O8">
         <v>1.36</v>
@@ -1405,7 +1405,7 @@
         <v>3.16</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE8">
         <v>1.55</v>
@@ -1417,7 +1417,7 @@
         <v>2.3</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="9" spans="1:34">
@@ -1437,13 +1437,13 @@
         <v>62</v>
       </c>
       <c r="F9">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="G9">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="I9">
         <v>1.04</v>
@@ -1458,10 +1458,10 @@
         <v>2.9</v>
       </c>
       <c r="M9">
-        <v>2.15</v>
+        <v>2.32</v>
       </c>
       <c r="N9">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="O9">
         <v>1.47</v>
@@ -1509,7 +1509,7 @@
         <v>3.07</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE9">
         <v>1.48</v>
@@ -1541,13 +1541,13 @@
         <v>63</v>
       </c>
       <c r="F10">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="G10">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H10">
-        <v>3.4</v>
+        <v>3.65</v>
       </c>
       <c r="I10">
         <v>1.05</v>
@@ -1562,10 +1562,10 @@
         <v>3.3</v>
       </c>
       <c r="M10">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>1.62</v>
+        <v>1.81</v>
       </c>
       <c r="O10">
         <v>1.44</v>
@@ -1613,7 +1613,7 @@
         <v>2.28</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE10">
         <v>1.43</v>
@@ -1645,13 +1645,13 @@
         <v>64</v>
       </c>
       <c r="F11">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="G11">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="H11">
-        <v>4.4</v>
+        <v>5.5</v>
       </c>
       <c r="I11">
         <v>1.02</v>
@@ -1666,10 +1666,10 @@
         <v>3.3</v>
       </c>
       <c r="M11">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="O11">
         <v>1.44</v>
@@ -1717,10 +1717,10 @@
         <v>4.64</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AF11">
         <v>1.65</v>
@@ -1749,13 +1749,13 @@
         <v>65</v>
       </c>
       <c r="F12">
-        <v>1.14</v>
+        <v>1.19</v>
       </c>
       <c r="G12">
         <v>7.5</v>
       </c>
       <c r="H12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I12">
         <v>1.02</v>
@@ -1853,13 +1853,13 @@
         <v>66</v>
       </c>
       <c r="F13">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="G13">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="H13">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="I13">
         <v>1.05</v>
@@ -1874,10 +1874,10 @@
         <v>4</v>
       </c>
       <c r="M13">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="N13">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="O13">
         <v>1.33</v>
@@ -1957,13 +1957,13 @@
         <v>67</v>
       </c>
       <c r="F14">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="G14">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H14">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="I14">
         <v>1.06</v>
@@ -1978,10 +1978,10 @@
         <v>3.6</v>
       </c>
       <c r="M14">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="N14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="O14">
         <v>1.4</v>
@@ -2124,28 +2124,28 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AD15">
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>2.8</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-02-15_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-02-15_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -757,10 +757,10 @@
         <v>2.05</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>56</v>
       </c>
       <c r="F3">
-        <v>3.22</v>
+        <v>2.9</v>
       </c>
       <c r="G3">
-        <v>3.33</v>
+        <v>3.2</v>
       </c>
       <c r="H3">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="I3">
         <v>1.04</v>
@@ -834,10 +834,10 @@
         <v>4</v>
       </c>
       <c r="M3">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="N3">
-        <v>1.93</v>
+        <v>1.81</v>
       </c>
       <c r="O3">
         <v>1.33</v>
@@ -917,13 +917,13 @@
         <v>57</v>
       </c>
       <c r="F4">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="G4">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="H4">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="I4">
         <v>1.05</v>
@@ -938,10 +938,10 @@
         <v>3.8</v>
       </c>
       <c r="M4">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="N4">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="O4">
         <v>1.36</v>
@@ -1021,7 +1021,7 @@
         <v>58</v>
       </c>
       <c r="F5">
-        <v>2.25</v>
+        <v>2.23</v>
       </c>
       <c r="G5">
         <v>3.2</v>
@@ -1146,10 +1146,10 @@
         <v>3.4</v>
       </c>
       <c r="M6">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="O6">
         <v>1.4</v>
@@ -1229,13 +1229,13 @@
         <v>60</v>
       </c>
       <c r="F7">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="I7">
         <v>1.09</v>
@@ -1250,7 +1250,7 @@
         <v>2.8</v>
       </c>
       <c r="M7">
-        <v>2.43</v>
+        <v>2.45</v>
       </c>
       <c r="N7">
         <v>1.56</v>
@@ -1336,10 +1336,10 @@
         <v>1.65</v>
       </c>
       <c r="G8">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="H8">
-        <v>5.25</v>
+        <v>5.1</v>
       </c>
       <c r="I8">
         <v>1.01</v>
@@ -1544,10 +1544,10 @@
         <v>2.05</v>
       </c>
       <c r="G10">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H10">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I10">
         <v>1.05</v>
@@ -1749,13 +1749,13 @@
         <v>65</v>
       </c>
       <c r="F12">
-        <v>1.19</v>
+        <v>1.13</v>
       </c>
       <c r="G12">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="H12">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I12">
         <v>1.02</v>
@@ -1853,13 +1853,13 @@
         <v>66</v>
       </c>
       <c r="F13">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="G13">
         <v>3.3</v>
       </c>
       <c r="H13">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="I13">
         <v>1.05</v>
@@ -1957,13 +1957,13 @@
         <v>67</v>
       </c>
       <c r="F14">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="G14">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H14">
-        <v>2.6</v>
+        <v>2.35</v>
       </c>
       <c r="I14">
         <v>1.06</v>
@@ -2133,7 +2133,7 @@
         <v>5.75</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AE15">
         <v>1.38</v>
